--- a/work_exam_score_retrieve/exams/exam_53238375.xlsx
+++ b/work_exam_score_retrieve/exams/exam_53238375.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1F8DB-FEF0-4BEA-899A-B04E4D6968CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2540" yWindow="5870" windowWidth="16780" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="144">
   <si>
     <t>personid</t>
   </si>
@@ -31,24 +32,6 @@
     <t>课程</t>
   </si>
   <si>
-    <t>1853952</t>
-  </si>
-  <si>
-    <t>1899424</t>
-  </si>
-  <si>
-    <t>1957578</t>
-  </si>
-  <si>
-    <t>2016416</t>
-  </si>
-  <si>
-    <t>2142656</t>
-  </si>
-  <si>
-    <t>2353018</t>
-  </si>
-  <si>
     <t>147372584</t>
   </si>
   <si>
@@ -446,13 +429,31 @@
   </si>
   <si>
     <t>夏勒哈尔·叶尔江</t>
+  </si>
+  <si>
+    <t>微分学的基本定理</t>
+  </si>
+  <si>
+    <t>导数的应用</t>
+  </si>
+  <si>
+    <t>积分-1</t>
+  </si>
+  <si>
+    <t>积分-2</t>
+  </si>
+  <si>
+    <t>积分法</t>
+  </si>
+  <si>
+    <t>导数与极限</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,125 +488,133 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -661,8 +670,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -684,8 +693,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -701,8 +710,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -739,23 +748,25 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -772,74 +783,74 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>80</v>
@@ -860,21 +871,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -895,21 +906,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -924,27 +935,27 @@
         <v>60</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K5">
         <v>40</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>80</v>
@@ -965,21 +976,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -994,167 +1005,167 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K7">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>80</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>80</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>80</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>60</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -1169,27 +1180,27 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K12">
         <v>80</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>80</v>
@@ -1204,27 +1215,27 @@
         <v>100</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K13">
         <v>100</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1239,27 +1250,27 @@
         <v>60</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K14">
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -1274,27 +1285,27 @@
         <v>40</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K15">
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>80</v>
@@ -1309,272 +1320,272 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K16">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>80</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>80</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>60</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>80</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-      <c r="I20">
-        <v>60</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>80</v>
+      </c>
+      <c r="H23">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>80</v>
-      </c>
-      <c r="G23">
-        <v>80</v>
-      </c>
-      <c r="H23">
-        <v>80</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>60</v>
@@ -1595,21 +1606,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1630,21 +1641,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1665,21 +1676,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -1694,27 +1705,27 @@
         <v>80</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K27">
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>80</v>
@@ -1735,21 +1746,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>40</v>
@@ -1770,21 +1781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1799,27 +1810,27 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K30">
         <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>80</v>
@@ -1840,21 +1851,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1875,21 +1886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>80</v>
@@ -1904,27 +1915,27 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K33">
         <v>60</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1939,167 +1950,167 @@
         <v>60</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K34">
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>60</v>
+      </c>
+      <c r="H35">
+        <v>60</v>
+      </c>
+      <c r="I35">
+        <v>60</v>
+      </c>
+      <c r="J35">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>80</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>80</v>
+      </c>
+      <c r="G37">
+        <v>80</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="G35">
-        <v>60</v>
-      </c>
-      <c r="H35">
-        <v>60</v>
-      </c>
-      <c r="I35">
-        <v>60</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>60</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>82</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <v>80</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>60</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37">
-        <v>80</v>
-      </c>
-      <c r="G37">
-        <v>80</v>
-      </c>
-      <c r="H37">
-        <v>100</v>
-      </c>
-      <c r="I37">
-        <v>100</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38">
-        <v>100</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>100</v>
-      </c>
-      <c r="I38">
-        <v>60</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2114,27 +2125,27 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K39">
         <v>40</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>80</v>
@@ -2155,21 +2166,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>100</v>
@@ -2190,21 +2201,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>100</v>
@@ -2225,21 +2236,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>100</v>
@@ -2260,21 +2271,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2289,27 +2300,27 @@
         <v>60</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2324,27 +2335,27 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K45">
         <v>40</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2365,21 +2376,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <v>100</v>
@@ -2400,21 +2411,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>100</v>
@@ -2429,552 +2440,552 @@
         <v>60</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K48">
         <v>40</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>60</v>
+      </c>
+      <c r="H49">
+        <v>60</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>60</v>
+      </c>
+      <c r="J50">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>80</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>108</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>109</v>
       </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>60</v>
-      </c>
-      <c r="H49">
-        <v>60</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50">
-        <v>100</v>
-      </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
-      <c r="H50">
-        <v>100</v>
-      </c>
-      <c r="I50">
-        <v>60</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>112</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51">
-        <v>80</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>114</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>115</v>
       </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>100</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>116</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>100</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>118</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>119</v>
       </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>120</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>121</v>
       </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>122</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>100</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>124</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>125</v>
       </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>126</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>127</v>
       </c>
-      <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>128</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>129</v>
       </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>100</v>
-      </c>
-      <c r="K59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62">
+        <v>80</v>
+      </c>
+      <c r="H62">
+        <v>80</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>130</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>131</v>
       </c>
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>80</v>
+      </c>
+      <c r="G63">
+        <v>80</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>132</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>133</v>
       </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>100</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62">
-        <v>100</v>
-      </c>
-      <c r="G62">
-        <v>80</v>
-      </c>
-      <c r="H62">
-        <v>80</v>
-      </c>
-      <c r="I62">
-        <v>60</v>
-      </c>
-      <c r="J62">
-        <v>100</v>
-      </c>
-      <c r="K62">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63">
-        <v>80</v>
-      </c>
-      <c r="G63">
-        <v>80</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" t="s">
-        <v>139</v>
-      </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F64">
         <v>40</v>
@@ -2995,21 +3006,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3030,21 +3041,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3066,5 +3077,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>